--- a/table.xlsx
+++ b/table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Jméno</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
   <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -535,10 +538,18 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
